--- a/ejemplo_BD.xlsx
+++ b/ejemplo_BD.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="84">
   <si>
     <t>dni</t>
   </si>
@@ -225,13 +225,58 @@
     <t>efectivo</t>
   </si>
   <si>
-    <t>tarjeta</t>
-  </si>
-  <si>
     <t>CLAVE FORANIA</t>
   </si>
   <si>
     <t>FOREIGN KEY</t>
+  </si>
+  <si>
+    <t>se quiere modelar el sistem de facturacion simple de un supermercado</t>
+  </si>
+  <si>
+    <t>se cuenta con informacion de</t>
+  </si>
+  <si>
+    <t>productos</t>
+  </si>
+  <si>
+    <t>factura</t>
+  </si>
+  <si>
+    <t>numero</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>linea factura</t>
+  </si>
+  <si>
+    <t>forma de pago</t>
+  </si>
+  <si>
+    <t>subtotal</t>
+  </si>
+  <si>
+    <t>una factura esta compuesta por varias lineas de factura</t>
+  </si>
+  <si>
+    <t>cada factura puede ser pagada con diferentes formas de pago</t>
+  </si>
+  <si>
+    <t>un cliente puede comprar varias veces</t>
+  </si>
+  <si>
+    <t>PAGO</t>
+  </si>
+  <si>
+    <t>debito</t>
+  </si>
+  <si>
+    <t>credito</t>
+  </si>
+  <si>
+    <t>transferencia</t>
   </si>
 </sst>
 </file>
@@ -631,7 +676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:P32"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
@@ -1203,10 +1248,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M22"/>
+  <dimension ref="A2:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1219,7 +1264,6 @@
     <col min="9" max="9" width="12.33203125" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -1500,25 +1544,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
       <c r="I17" s="12"/>
       <c r="J17" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="L17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>60</v>
       </c>
       <c r="J18" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="L18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C19" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="8" t="s">
         <v>63</v>
       </c>
       <c r="E19" s="8" t="s">
@@ -1527,13 +1580,19 @@
       <c r="F19" s="7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="L19">
+        <v>10</v>
+      </c>
+      <c r="M19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" t="s">
-        <v>65</v>
+      <c r="D20">
+        <v>10</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>34</v>
@@ -1541,13 +1600,19 @@
       <c r="F20">
         <v>2000</v>
       </c>
-    </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="L20">
+        <v>20</v>
+      </c>
+      <c r="M20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21">
         <v>2</v>
       </c>
-      <c r="D21" t="s">
-        <v>66</v>
+      <c r="D21">
+        <v>30</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>34</v>
@@ -1557,15 +1622,21 @@
       </c>
       <c r="I21" s="13"/>
       <c r="J21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="L21">
+        <v>30</v>
+      </c>
+      <c r="M21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C22">
         <v>3</v>
       </c>
-      <c r="D22" t="s">
-        <v>65</v>
+      <c r="D22">
+        <v>10</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>40</v>
@@ -1574,7 +1645,111 @@
         <v>5000</v>
       </c>
       <c r="J22" t="s">
+        <v>67</v>
+      </c>
+      <c r="L22">
+        <v>40</v>
+      </c>
+      <c r="M22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>54</v>
+      </c>
+      <c r="H31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" t="s">
+        <v>72</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" t="s">
+        <v>72</v>
+      </c>
+      <c r="G33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E34" t="s">
+        <v>75</v>
+      </c>
+      <c r="F34" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
